--- a/Others/LPC1768_Stick_BOM.xlsx
+++ b/Others/LPC1768_Stick_BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\Explore-Cortex-M3-LPC1768-Stick-DVB-14001\Others\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12030"/>
   </bookViews>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>Id</t>
   </si>
@@ -308,13 +313,28 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Avaiylabilt</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>order placed @ Ali</t>
+  </si>
+  <si>
+    <t>In Stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -351,20 +371,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,9 +491,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +526,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,610 +702,730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:E52"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="F2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="F3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="F4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="F5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="F6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="F7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="F8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="F9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="F12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="F13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="F14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="F15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="F16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="F17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="F18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="F19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="F20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="F21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="F22" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="F23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="F24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="F25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="F26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="F27" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="F28" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="F29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="F31" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="F32" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="F33" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="E35" t="s">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E48" s="2"/>
     </row>
   </sheetData>
@@ -1268,24 +1434,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
